--- a/src/test/resources/import/generic/error-start-not-zero.xlsx
+++ b/src/test/resources/import/generic/error-start-not-zero.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A629F8-288A-49A3-9611-30E20305A673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E5BE6D96-F013-4725-99C5-873C60581788}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>First Name</t>
   </si>
@@ -89,7 +89,7 @@
     <t>gagneray@beable.com</t>
   </si>
   <si>
-    <t>PT_BR</t>
+    <t>IT_IT</t>
   </si>
   <si>
     <t>License</t>
@@ -110,19 +110,13 @@
     <t>VISIO</t>
   </si>
   <si>
-    <t>ES_ES</t>
+    <t>DE_DE</t>
   </si>
   <si>
     <t>ASSESSMENT</t>
   </si>
   <si>
-    <t>IT_IT</t>
-  </si>
-  <si>
     <t>NEWS</t>
-  </si>
-  <si>
-    <t>DE_DE</t>
   </si>
 </sst>
 </file>
@@ -488,7 +482,7 @@
   <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,7 +593,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{0AE93642-3064-541A-AC2E-D2431B81D913}">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -644,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>45</v>
@@ -672,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -686,7 +680,7 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -697,7 +691,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -708,10 +702,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>55</v>
